--- a/Income/AMP_inc.xlsx
+++ b/Income/AMP_inc.xlsx
@@ -1780,16 +1780,16 @@
         <v>0.9862</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.9007</v>
+        <v>0.9933</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.9041</v>
+        <v>0.9948</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.9105</v>
+        <v>0.9984</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.9126</v>
+        <v>1.0</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1.0</v>
@@ -1907,16 +1907,16 @@
         <v>0.2185</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.2269</v>
+        <v>0.2502</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.2805</v>
+        <v>0.3086</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.3455</v>
+        <v>0.3788</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.2192</v>
+        <v>0.2402</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.2543</v>
@@ -2034,16 +2034,16 @@
         <v>0.1517</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.1632</v>
+        <v>0.18</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.2202</v>
+        <v>0.2423</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.2914</v>
+        <v>0.3196</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.1571</v>
+        <v>0.1721</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.1828</v>
@@ -2161,16 +2161,16 @@
         <v>0.1271</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.1366</v>
+        <v>0.1506</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.1837</v>
+        <v>0.2022</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.2504</v>
+        <v>0.2746</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.1332</v>
+        <v>0.146</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.1531</v>
@@ -2288,16 +2288,16 @@
         <v>0.3954</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.3354</v>
+        <v>0.3961</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.4046</v>
+        <v>0.4708</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.4894</v>
+        <v>0.5613</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.1324</v>
+        <v>0.1695</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.3046</v>
@@ -3845,16 +3845,16 @@
         <v>0.2357</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.242</v>
+        <v>0.2669</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.2943</v>
+        <v>0.3238</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.3585</v>
+        <v>0.3931</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.2321</v>
+        <v>0.2543</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.2681</v>
@@ -3972,16 +3972,16 @@
         <v>0.4076</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.3466</v>
+        <v>0.4085</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.4147</v>
+        <v>0.4819</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.4994</v>
+        <v>0.5722</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.1424</v>
+        <v>0.1805</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.3159</v>
